--- a/graphs/Timinganalysis.xlsx
+++ b/graphs/Timinganalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GCC" sheetId="3" r:id="rId1"/>
@@ -189,6 +189,4956 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>gcc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Timing Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35539566929133865"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>KR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GCC!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>106.920236957768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.31665996155701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217.36449527598199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>264.12333953303897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322.58290669249499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>380.75618586166502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>453.047449392712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>461.80491589494699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>537.20869498425304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>598.52549153847804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>645.28486414171698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>683.81804404683305</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>728.15408641332601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>798.96273025846006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>845.21224206169302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>855.28998135069799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1036.25143534466</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1034.75662080189</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1056.9623696539199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GCC!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>385.86944699999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>404.12790100000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>376.42128199999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>380.49217399999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>387.91035699999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447.01926099999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>371.89338299999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>372.93808300000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>371.46890500000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>371.01740000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>371.32679999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>371.80186199999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>379.48695499999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>371.09335699999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>377.073982</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>378.07986499999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>370.67245399999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>370.92896199999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>371.29760299999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1132-4333-B200-30C9EB32F32D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GCC!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winnowing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GCC!$G$3:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>23.5999834656503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.672609579881101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.309709488902399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.157765207465701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.548606822283602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.631166921261901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.468553881731196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.149660479270104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.7107447343177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.190080227588403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.5962123828632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.955203772770801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.263723999080803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.535056062150403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.783738259453003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.004737618475303</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.206389470099403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.386556100720099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.552163051331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GCC!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>321.384885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.72993199999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>301.82788099999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>299.15496300000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>296.09679499999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>294.37266499999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>293.81294600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>285.41657599999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>285.449566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>299.33454699999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>292.153278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>284.65866999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>284.17657099999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>284.160168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>298.29243400000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>283.79110299999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>343.72586899999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>283.59805699999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>290.433268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1132-4333-B200-30C9EB32F32D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GCC!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GCC!$N$3:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>197.59487501853999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>294.97453632922401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>403.16006398524303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>501.66194455402899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>607.66497241409195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>708.02996558007601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>825.24129793510303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>898.90366942998503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1019.18758424714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1120.77560995152</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1227.91906245885</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1330.84439370153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1417.5667595642201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1538.64701352986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1644.2741271893699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1730.6328487472899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1892.6784385359499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1982.4036281179101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2072.1191022887101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GCC!$P$3:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>668.72051699999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>599.01994400000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>613.39736599999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>604.21577200000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>601.42833399999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>607.25734899999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>621.15328</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>589.40804500000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>610.43304899999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>601.256167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>606.51976400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>602.79456800000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>596.27981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>609.492796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>615.17132099999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>595.45509500000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>623.91976299999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>612.71441700000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>606.26630299999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1132-4333-B200-30C9EB32F32D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>GCC!$S$3:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>223.28206683533699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340.589488549897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>461.59918159918101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>584.177577314205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>708.99893557706901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>847.54241396025202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>975.816387038264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1109.22168034574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1241.2671931848399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1375.80800629487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1510.97380502295</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1652.82287604868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1794.46311738293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1921.1427001785401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2059.0034591889298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2200.3838288500801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2340.8651995648902</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2485.6223900488599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2633.5008942859799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>GCC!$U$3:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>588.38989400000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>479.24383799999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>472.46607399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>467.82054499999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>465.46729399999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>468.668451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>466.65023600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>466.42571299999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>466.825853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>467.205083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>467.518485</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>468.03505099999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>468.17252399999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>468.68095399999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>468.71521999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>469.12752399999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>469.77311599999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>470.18888699999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>470.33798899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1132-4333-B200-30C9EB32F32D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="298563672"/>
+        <c:axId val="298565968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="298563672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Avg Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298565968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="298565968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298563672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>emacs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Timing Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33886789151356078"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>KR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Emacs!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>103.552865188369</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.71898707601301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209.92032808595101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>261.13564501129201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>312.13364670011998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367.54702868469201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>429.013445084686</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489.47692154445701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500.07454427497402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>580.369971211338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>626.76551713142305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>696.61468670258</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>735.21778974733002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>767.17068030131497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>880.828142505041</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>867.72382129613197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>969.16720082836105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1044.87574090317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>962.14596896568605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Emacs!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>565.36473799999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>530.36124699999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>531.19375300000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526.11451899999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>527.31464499999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>531.45777599999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>538.82485799999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>529.07060799999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>528.33161299999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>522.67344400000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>521.84040700000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>524.98886399999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>527.86289599999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524.27869899999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>527.85276299999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>522.14672799999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>521.58976599999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>523.77769799999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>523.84242799999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A893-4A67-87AF-14531F1F24E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GCC!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winnowing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Emacs!$G$3:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>16.2078156817457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.016593391333299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.084231319484999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.780962727434201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.2865825747845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.670943737120499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.9609609609609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.194541475651899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.3854530637912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.5476026038206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.679325829932001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.794505601731501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.894612084449701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.9824448486753</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.060704964132199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.1291552651888</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.1947355524666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.254392132486799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.306697111521601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Emacs!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>445.27914299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>442.96982800000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>434.18118999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>432.52187499999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424.05883899999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>429.99304699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>413.55899399999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>426.27755199999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>423.99356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>424.90599499999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>412.48103199999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>408.55339599999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>410.159851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419.84474399999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>404.80537999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>407.46391699999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>409.39057499999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>410.53238799999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>403.40007900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A893-4A67-87AF-14531F1F24E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GCC!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Emacs!$N$3:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>195.93470730430801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>298.63684706311301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>402.838112024265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>499.55345456393798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>604.99492135799801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700.08833167117803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>818.61146974303404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>911.33531157269999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1007.4927599374601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1106.05368296663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1218.9568992248001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1320.5468776243699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1419.9515983384499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1535.30013669205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1659.2672632112101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1730.8629799225</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1867.8779815641899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1972.66961059815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2036.75249987047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Emacs!$P$3:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>832.28480300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>834.55433799999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>835.03116199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>823.43942799999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>825.89381099999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>814.504503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>842.17803900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>820.15629899999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>814.01093199999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>797.43277899999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>814.545346</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>804.33831499999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>820.40429799999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>810.13844599999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>827.46401500000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>804.47456599999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>819.25008500000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>817.41052100000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>809.61853399999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A893-4A67-87AF-14531F1F24E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Emacs!$S$3:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>220.95584970351001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>340.384618714878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>461.36844823134498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>581.86468524740599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>706.46706802048698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>837.28482886413497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>967.25948526155196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1099.3417041863499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1226.8697334748099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1370.88017854651</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1499.8038991263199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1635.6561537821401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1764.7405279224199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1895.8938992042399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033.59164037038</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2168.18487673046</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2319.39111452003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2499.4506612410901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2627.06228281208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Emacs!$U$3:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>737.59183199999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>701.81486499999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684.15874899999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>680.58130299999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>678.68412699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>679.01250900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680.62388199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>679.19182999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>678.27486599999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>679.40326499999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>682.13913300000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>678.727937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>682.52041599999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>680.96816799999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>682.96829700000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>683.02607499999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>688.05952200000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>688.12085999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>689.08903699999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A893-4A67-87AF-14531F1F24E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="298563672"/>
+        <c:axId val="298565968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="298563672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Avg Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298565968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="298565968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="350"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298563672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>20MB Random File Timing Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35539566929133865"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>KR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20MB File'!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>99.873659820327205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.54119559817499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199.26868392997699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>249.95000999800001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300.93289196509102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>349.69314426590603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>396.74667724657797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452.16133116295799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>498.35542709060098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>554.10871613010397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>602.19197880284196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>651.76301896630298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>693.86622259228398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>747.30037738669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>791.92239160562201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>842.53096301288997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>897.66606822262099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>942.46265491729798</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>998.80143827407096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20MB File'!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>326.40100100000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275.91569399999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275.860389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269.35215899999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269.061804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273.72262999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>278.25080600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>273.38381899999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272.99176399999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>267.36613899999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277.638351</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>272.24150600000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267.08390600000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>267.05968899999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>266.99769499999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>266.41124600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>267.138149</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>272.83572399999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>266.74073099999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE1B-49CA-877B-132193870292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GCC!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winnowing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20MB File'!$G$3:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>50.430042184730198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.390901825967603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.48483934986299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125.353339726353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150.500413876138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175.249511491986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200.12007204322501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224.97187851518501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250.19077046247699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275.37588808723899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300.21014710297197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>324.72804026627699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>349.69925863757101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>375.23452157598501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400.68918539888602</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>426.421048142936</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>452.16133116295799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>477.22446252594898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>502.41157556270099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20MB File'!$I$3:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>239.48195299999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>227.248019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223.56488399999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.28771499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219.1883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>209.77006299999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>208.53883999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>212.70518899999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208.238191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.65005499999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210.989734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>207.36248899999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>212.218771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>206.31057699999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206.05922699999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>210.620147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>205.90840299999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205.33559499999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205.25431899999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE1B-49CA-877B-132193870292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GCC!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20MB File'!$N$3:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>192.211586514435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>289.02151765198897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384.57101103718799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>481.88126445643701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>579.24003707136205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>673.67286445701905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>768.285187461585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>867.001907404196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>963.20554806395603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1059.49038512475</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1157.5413821044101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1254.07574617506</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1344.9899125756499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1438.3315354189101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1538.3432043688899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1627.7366322129001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1734.3045438779</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1828.6550242296701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1928.0825219319299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20MB File'!$P$3:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>407.54076099999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400.657465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.179351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>401.57187199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410.761886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>395.44018599999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>393.825288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>396.973906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>388.34476699999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.980098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>385.93208799999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>381.891392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>382.29326399999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>378.14061899999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>380.969739</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>376.21633499999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379.84081699999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>380.80069900000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378.63427899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE1B-49CA-877B-132193870292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2min</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20MB File'!$S$3:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>201.403784377108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>301.12318949682299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>401.977730433734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>501.70579971904402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>602.15571746853698</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>701.40983376586905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800.48028817290299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>898.91680524967398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000.85072311464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1099.20307776861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1198.53778390363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1296.2602890660401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1395.96565924478</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1496.55791679137</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1594.38775510204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1695.63374311148</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1798.72290673621</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1895.37528430629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1997.20391451967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20MB File'!$U$3:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>288.680477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>288.480951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>275.88501600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>273.26063799999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>269.417036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.448397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260.05564799999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.43149399999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>259.36774099999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262.26895400000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262.158298</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256.38189299999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256.19046700000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256.49145999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>255.56925699999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>255.128524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>259.976742</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>254.57615799999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>259.946461</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AE1B-49CA-877B-132193870292}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="298563672"/>
+        <c:axId val="298565968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="298563672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Avg Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298565968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="298565968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298563672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,8 +5440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,6 +7376,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2433,8 +7384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4337,6 +9288,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4344,8 +9296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R21"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5907,5 +10859,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/graphs/Timinganalysis.xlsx
+++ b/graphs/Timinganalysis.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GCC" sheetId="3" r:id="rId1"/>
     <sheet name="Emacs" sheetId="4" r:id="rId2"/>
     <sheet name="20MB File" sheetId="5" r:id="rId3"/>
+    <sheet name="100MB file" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
 </workbook>
@@ -7384,7 +7385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
@@ -10861,4 +10862,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>